--- a/RegressionTests/NeuralNetClassifier_Unit_Test_2/expected_aptrans_anon.Copy_of_Irish_Life_Transfer_letter.xlsx
+++ b/RegressionTests/NeuralNetClassifier_Unit_Test_2/expected_aptrans_anon.Copy_of_Irish_Life_Transfer_letter.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="102">
   <si>
     <t>Scheme No: 605834</t>
   </si>
@@ -107,6 +107,10 @@
     <t>ER</t>
   </si>
   <si>
+    <t>No Refno or PPS number or payroll number specified
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>Kilshanny</t>
   </si>
   <si>
@@ -179,7 +183,7 @@
     <t>Buckode</t>
   </si>
   <si>
-    <t>2_Errors_found</t>
+    <t>1_Errors_found</t>
   </si>
   <si>
     <t>Error Type</t>
@@ -194,12 +198,6 @@
     <t>No unique ID reference column (REFNO/PPSNO/Payroll) was found</t>
   </si>
   <si>
-    <t>schemeNotNull</t>
-  </si>
-  <si>
-    <t>The Scheme ID is missing</t>
-  </si>
-  <si>
     <t>NEG_ROWS</t>
   </si>
   <si>
@@ -210,6 +208,123 @@
   </si>
   <si>
     <t>2904</t>
+  </si>
+  <si>
+    <t>Payment Frequency</t>
+  </si>
+  <si>
+    <t>Invoice Number</t>
+  </si>
+  <si>
+    <t>Paypoint</t>
+  </si>
+  <si>
+    <t>Collection Method</t>
+  </si>
+  <si>
+    <t>Date Received</t>
+  </si>
+  <si>
+    <t>Override Date</t>
+  </si>
+  <si>
+    <t>Amount Received</t>
+  </si>
+  <si>
+    <t>MIRO Date</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Monthly</t>
+  </si>
+  <si>
+    <t>1160359</t>
+  </si>
+  <si>
+    <t>352004</t>
+  </si>
+  <si>
+    <t>Direct Debit</t>
+  </si>
+  <si>
+    <t>27/04/2021</t>
+  </si>
+  <si>
+    <t>7,091.18</t>
+  </si>
+  <si>
+    <t>01/04/2021</t>
+  </si>
+  <si>
+    <t>ILIM April 2021</t>
+  </si>
+  <si>
+    <t>1157591</t>
+  </si>
+  <si>
+    <t>352001</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>26/03/2021</t>
+  </si>
+  <si>
+    <t>15,329.63</t>
+  </si>
+  <si>
+    <t>01/03/2021</t>
+  </si>
+  <si>
+    <t>ILIM March 2021</t>
+  </si>
+  <si>
+    <t>1155040</t>
+  </si>
+  <si>
+    <t>29/03/2021</t>
+  </si>
+  <si>
+    <t>1151936</t>
+  </si>
+  <si>
+    <t>02/03/2021</t>
+  </si>
+  <si>
+    <t>13,973.83</t>
+  </si>
+  <si>
+    <t>01/02/2021</t>
+  </si>
+  <si>
+    <t>ILIM Feb 2021</t>
+  </si>
+  <si>
+    <t>1151311</t>
+  </si>
+  <si>
+    <t>26/02/2021</t>
+  </si>
+  <si>
+    <t>6,943.67</t>
+  </si>
+  <si>
+    <t>1147443</t>
+  </si>
+  <si>
+    <t>04/02/2021</t>
+  </si>
+  <si>
+    <t>13,733.89</t>
+  </si>
+  <si>
+    <t>01/01/2021</t>
+  </si>
+  <si>
+    <t>ILIM Jan 2021</t>
   </si>
 </sst>
 </file>
@@ -223,7 +338,7 @@
     <numFmt numFmtId="179" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="180" formatCode="mmm/yy"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -388,6 +503,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -831,7 +954,7 @@
     <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -858,17 +981,18 @@
       <alignment/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1792,7 +1916,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="16.25"/>
+    <col min="1" max="1" width="47.5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15">
@@ -1812,13 +1936,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.25">
-      <c r="A2" s="14"/>
+    <row r="2" spans="1:5" ht="30">
+      <c r="A2" s="14" t="s">
+        <v>29</v>
+      </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D2">
         <v>375.0</v>
@@ -1827,13 +1953,15 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.25">
-      <c r="A3" s="14"/>
+    <row r="3" spans="1:5" ht="30">
+      <c r="A3" s="14" t="s">
+        <v>29</v>
+      </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3">
         <v>100.0</v>
@@ -1842,13 +1970,15 @@
         <v>10.0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14.25">
-      <c r="A4" s="14"/>
+    <row r="4" spans="1:5" ht="30">
+      <c r="A4" s="14" t="s">
+        <v>29</v>
+      </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D4">
         <v>350.0</v>
@@ -1857,13 +1987,15 @@
         <v>35.0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14.25">
-      <c r="A5" s="14"/>
+    <row r="5" spans="1:5" ht="30">
+      <c r="A5" s="14" t="s">
+        <v>29</v>
+      </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D5">
         <v>50.0</v>
@@ -1872,13 +2004,15 @@
         <v>5.0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14.25">
-      <c r="A6" s="14"/>
+    <row r="6" spans="1:5" ht="30">
+      <c r="A6" s="14" t="s">
+        <v>29</v>
+      </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D6">
         <v>140.0</v>
@@ -1887,13 +2021,15 @@
         <v>14.0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14.25">
-      <c r="A7" s="14"/>
+    <row r="7" spans="1:5" ht="30">
+      <c r="A7" s="14" t="s">
+        <v>29</v>
+      </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D7">
         <v>450.0</v>
@@ -1902,13 +2038,15 @@
         <v>45.0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14.25">
-      <c r="A8" s="14"/>
+    <row r="8" spans="1:5" ht="30">
+      <c r="A8" s="14" t="s">
+        <v>29</v>
+      </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D8">
         <v>100.0</v>
@@ -1917,13 +2055,15 @@
         <v>10.0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14.25">
-      <c r="A9" s="14"/>
+    <row r="9" spans="1:5" ht="30">
+      <c r="A9" s="14" t="s">
+        <v>29</v>
+      </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D9">
         <v>350.0</v>
@@ -1932,13 +2072,15 @@
         <v>35.0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14.25">
-      <c r="A10" s="14"/>
+    <row r="10" spans="1:5" ht="30">
+      <c r="A10" s="14" t="s">
+        <v>29</v>
+      </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D10">
         <v>50.0</v>
@@ -1947,13 +2089,15 @@
         <v>5.0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14.25">
-      <c r="A11" s="14"/>
+    <row r="11" spans="1:5" ht="30">
+      <c r="A11" s="14" t="s">
+        <v>29</v>
+      </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D11">
         <v>250.0</v>
@@ -1962,13 +2106,15 @@
         <v>25.0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="14.25">
-      <c r="A12" s="14"/>
+    <row r="12" spans="1:5" ht="30">
+      <c r="A12" s="14" t="s">
+        <v>29</v>
+      </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D12">
         <v>200.0</v>
@@ -1977,13 +2123,15 @@
         <v>20.0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="14.25">
-      <c r="A13" s="14"/>
+    <row r="13" spans="1:5" ht="30">
+      <c r="A13" s="14" t="s">
+        <v>29</v>
+      </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D13">
         <v>225.0</v>
@@ -2003,7 +2151,7 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -2013,32 +2161,24 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15">
       <c r="A1" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B1" s="15"/>
     </row>
     <row r="2" spans="1:2" ht="15">
       <c r="A2" s="16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15">
-      <c r="A4" t="s">
         <v>58</v>
-      </c>
-      <c r="B4" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2049,13 +2189,24 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.75"/>
+    <col min="2" max="2" width="14.125"/>
+    <col min="3" max="3" width="8.25"/>
+    <col min="4" max="4" width="15.75"/>
+    <col min="5" max="5" width="13.25"/>
+    <col min="6" max="6" width="12.625"/>
+    <col min="7" max="7" width="15.75"/>
+    <col min="8" max="8" width="10.5"/>
+    <col min="9" max="9" width="15"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15">
       <c r="A1" t="s">
@@ -2075,22 +2226,225 @@
     </row>
     <row r="4" spans="1:1" ht="15">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15">
       <c r="A9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15">
+      <c r="A12" s="17" t="s">
         <v>63</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="I12" s="17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15">
+      <c r="A13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13" t="s">
+        <v>77</v>
+      </c>
+      <c r="H13" t="s">
+        <v>78</v>
+      </c>
+      <c r="I13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15">
+      <c r="A14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" t="s">
+        <v>83</v>
+      </c>
+      <c r="G14" t="s">
+        <v>84</v>
+      </c>
+      <c r="H14" t="s">
+        <v>85</v>
+      </c>
+      <c r="I14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15">
+      <c r="A15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" t="s">
+        <v>88</v>
+      </c>
+      <c r="F15" t="s">
+        <v>88</v>
+      </c>
+      <c r="G15" t="s">
+        <v>77</v>
+      </c>
+      <c r="H15" t="s">
+        <v>85</v>
+      </c>
+      <c r="I15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15">
+      <c r="A16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" t="s">
+        <v>90</v>
+      </c>
+      <c r="F16" t="s">
+        <v>90</v>
+      </c>
+      <c r="G16" t="s">
+        <v>91</v>
+      </c>
+      <c r="H16" t="s">
+        <v>92</v>
+      </c>
+      <c r="I16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15">
+      <c r="A17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" t="s">
+        <v>95</v>
+      </c>
+      <c r="G17" t="s">
+        <v>96</v>
+      </c>
+      <c r="H17" t="s">
+        <v>92</v>
+      </c>
+      <c r="I17" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15">
+      <c r="A18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" t="s">
+        <v>82</v>
+      </c>
+      <c r="E18" t="s">
+        <v>98</v>
+      </c>
+      <c r="F18" t="s">
+        <v>98</v>
+      </c>
+      <c r="G18" t="s">
+        <v>99</v>
+      </c>
+      <c r="H18" t="s">
+        <v>100</v>
+      </c>
+      <c r="I18" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/RegressionTests/NeuralNetClassifier_Unit_Test_2/expected_aptrans_anon.Copy_of_Irish_Life_Transfer_letter.xlsx
+++ b/RegressionTests/NeuralNetClassifier_Unit_Test_2/expected_aptrans_anon.Copy_of_Irish_Life_Transfer_letter.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="64">
   <si>
     <t>Scheme No: 605834</t>
   </si>
@@ -107,10 +107,6 @@
     <t>ER</t>
   </si>
   <si>
-    <t>No Refno or PPS number or payroll number specified
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>Kilshanny</t>
   </si>
   <si>
@@ -183,7 +179,7 @@
     <t>Buckode</t>
   </si>
   <si>
-    <t>1_Errors_found</t>
+    <t>2_Errors_found</t>
   </si>
   <si>
     <t>Error Type</t>
@@ -198,6 +194,12 @@
     <t>No unique ID reference column (REFNO/PPSNO/Payroll) was found</t>
   </si>
   <si>
+    <t>schemeNotNull</t>
+  </si>
+  <si>
+    <t>The Scheme ID is missing</t>
+  </si>
+  <si>
     <t>NEG_ROWS</t>
   </si>
   <si>
@@ -208,123 +210,6 @@
   </si>
   <si>
     <t>2904</t>
-  </si>
-  <si>
-    <t>Payment Frequency</t>
-  </si>
-  <si>
-    <t>Invoice Number</t>
-  </si>
-  <si>
-    <t>Paypoint</t>
-  </si>
-  <si>
-    <t>Collection Method</t>
-  </si>
-  <si>
-    <t>Date Received</t>
-  </si>
-  <si>
-    <t>Override Date</t>
-  </si>
-  <si>
-    <t>Amount Received</t>
-  </si>
-  <si>
-    <t>MIRO Date</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>Monthly</t>
-  </si>
-  <si>
-    <t>1160359</t>
-  </si>
-  <si>
-    <t>352004</t>
-  </si>
-  <si>
-    <t>Direct Debit</t>
-  </si>
-  <si>
-    <t>27/04/2021</t>
-  </si>
-  <si>
-    <t>7,091.18</t>
-  </si>
-  <si>
-    <t>01/04/2021</t>
-  </si>
-  <si>
-    <t>ILIM April 2021</t>
-  </si>
-  <si>
-    <t>1157591</t>
-  </si>
-  <si>
-    <t>352001</t>
-  </si>
-  <si>
-    <t>Cash</t>
-  </si>
-  <si>
-    <t>26/03/2021</t>
-  </si>
-  <si>
-    <t>15,329.63</t>
-  </si>
-  <si>
-    <t>01/03/2021</t>
-  </si>
-  <si>
-    <t>ILIM March 2021</t>
-  </si>
-  <si>
-    <t>1155040</t>
-  </si>
-  <si>
-    <t>29/03/2021</t>
-  </si>
-  <si>
-    <t>1151936</t>
-  </si>
-  <si>
-    <t>02/03/2021</t>
-  </si>
-  <si>
-    <t>13,973.83</t>
-  </si>
-  <si>
-    <t>01/02/2021</t>
-  </si>
-  <si>
-    <t>ILIM Feb 2021</t>
-  </si>
-  <si>
-    <t>1151311</t>
-  </si>
-  <si>
-    <t>26/02/2021</t>
-  </si>
-  <si>
-    <t>6,943.67</t>
-  </si>
-  <si>
-    <t>1147443</t>
-  </si>
-  <si>
-    <t>04/02/2021</t>
-  </si>
-  <si>
-    <t>13,733.89</t>
-  </si>
-  <si>
-    <t>01/01/2021</t>
-  </si>
-  <si>
-    <t>ILIM Jan 2021</t>
   </si>
 </sst>
 </file>
@@ -338,7 +223,7 @@
     <numFmt numFmtId="179" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="180" formatCode="mmm/yy"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -503,14 +388,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -954,7 +831,7 @@
     <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -981,18 +858,17 @@
       <alignment/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1916,7 +1792,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="47.5"/>
+    <col min="1" max="1" width="16.25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15">
@@ -1936,15 +1812,13 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:5" ht="14.25">
+      <c r="A2" s="14"/>
+      <c r="B2" t="s">
         <v>29</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>30</v>
-      </c>
-      <c r="C2" t="s">
-        <v>31</v>
       </c>
       <c r="D2">
         <v>375.0</v>
@@ -1953,15 +1827,13 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30">
-      <c r="A3" s="14" t="s">
-        <v>29</v>
-      </c>
+    <row r="3" spans="1:5" ht="14.25">
+      <c r="A3" s="14"/>
       <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
         <v>32</v>
-      </c>
-      <c r="C3" t="s">
-        <v>33</v>
       </c>
       <c r="D3">
         <v>100.0</v>
@@ -1970,15 +1842,13 @@
         <v>10.0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="30">
-      <c r="A4" s="14" t="s">
-        <v>29</v>
-      </c>
+    <row r="4" spans="1:5" ht="14.25">
+      <c r="A4" s="14"/>
       <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
         <v>34</v>
-      </c>
-      <c r="C4" t="s">
-        <v>35</v>
       </c>
       <c r="D4">
         <v>350.0</v>
@@ -1987,15 +1857,13 @@
         <v>35.0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30">
-      <c r="A5" s="14" t="s">
-        <v>29</v>
-      </c>
+    <row r="5" spans="1:5" ht="14.25">
+      <c r="A5" s="14"/>
       <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
         <v>36</v>
-      </c>
-      <c r="C5" t="s">
-        <v>37</v>
       </c>
       <c r="D5">
         <v>50.0</v>
@@ -2004,15 +1872,13 @@
         <v>5.0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30">
-      <c r="A6" s="14" t="s">
-        <v>29</v>
-      </c>
+    <row r="6" spans="1:5" ht="14.25">
+      <c r="A6" s="14"/>
       <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
         <v>38</v>
-      </c>
-      <c r="C6" t="s">
-        <v>39</v>
       </c>
       <c r="D6">
         <v>140.0</v>
@@ -2021,15 +1887,13 @@
         <v>14.0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30">
-      <c r="A7" s="14" t="s">
-        <v>29</v>
-      </c>
+    <row r="7" spans="1:5" ht="14.25">
+      <c r="A7" s="14"/>
       <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" t="s">
         <v>40</v>
-      </c>
-      <c r="C7" t="s">
-        <v>41</v>
       </c>
       <c r="D7">
         <v>450.0</v>
@@ -2038,15 +1902,13 @@
         <v>45.0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30">
-      <c r="A8" s="14" t="s">
-        <v>29</v>
-      </c>
+    <row r="8" spans="1:5" ht="14.25">
+      <c r="A8" s="14"/>
       <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" t="s">
         <v>42</v>
-      </c>
-      <c r="C8" t="s">
-        <v>43</v>
       </c>
       <c r="D8">
         <v>100.0</v>
@@ -2055,15 +1917,13 @@
         <v>10.0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30">
-      <c r="A9" s="14" t="s">
-        <v>29</v>
-      </c>
+    <row r="9" spans="1:5" ht="14.25">
+      <c r="A9" s="14"/>
       <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" t="s">
         <v>44</v>
-      </c>
-      <c r="C9" t="s">
-        <v>45</v>
       </c>
       <c r="D9">
         <v>350.0</v>
@@ -2072,15 +1932,13 @@
         <v>35.0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="30">
-      <c r="A10" s="14" t="s">
-        <v>29</v>
-      </c>
+    <row r="10" spans="1:5" ht="14.25">
+      <c r="A10" s="14"/>
       <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" t="s">
         <v>46</v>
-      </c>
-      <c r="C10" t="s">
-        <v>47</v>
       </c>
       <c r="D10">
         <v>50.0</v>
@@ -2089,15 +1947,13 @@
         <v>5.0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="30">
-      <c r="A11" s="14" t="s">
-        <v>29</v>
-      </c>
+    <row r="11" spans="1:5" ht="14.25">
+      <c r="A11" s="14"/>
       <c r="B11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" t="s">
         <v>48</v>
-      </c>
-      <c r="C11" t="s">
-        <v>49</v>
       </c>
       <c r="D11">
         <v>250.0</v>
@@ -2106,15 +1962,13 @@
         <v>25.0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="30">
-      <c r="A12" s="14" t="s">
-        <v>29</v>
-      </c>
+    <row r="12" spans="1:5" ht="14.25">
+      <c r="A12" s="14"/>
       <c r="B12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" t="s">
         <v>50</v>
-      </c>
-      <c r="C12" t="s">
-        <v>51</v>
       </c>
       <c r="D12">
         <v>200.0</v>
@@ -2123,15 +1977,13 @@
         <v>20.0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="30">
-      <c r="A13" s="14" t="s">
-        <v>29</v>
-      </c>
+    <row r="13" spans="1:5" ht="14.25">
+      <c r="A13" s="14"/>
       <c r="B13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" t="s">
         <v>52</v>
-      </c>
-      <c r="C13" t="s">
-        <v>53</v>
       </c>
       <c r="D13">
         <v>225.0</v>
@@ -2151,7 +2003,7 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -2161,24 +2013,32 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15">
       <c r="A1" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B1" s="15"/>
     </row>
     <row r="2" spans="1:2" ht="15">
       <c r="A2" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>55</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15">
       <c r="A3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" t="s">
         <v>57</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="4" spans="1:2" ht="15">
+      <c r="A4" t="s">
         <v>58</v>
+      </c>
+      <c r="B4" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2189,24 +2049,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.75"/>
-    <col min="2" max="2" width="14.125"/>
-    <col min="3" max="3" width="8.25"/>
-    <col min="4" max="4" width="15.75"/>
-    <col min="5" max="5" width="13.25"/>
-    <col min="6" max="6" width="12.625"/>
-    <col min="7" max="7" width="15.75"/>
-    <col min="8" max="8" width="10.5"/>
-    <col min="9" max="9" width="15"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15">
       <c r="A1" t="s">
@@ -2226,225 +2075,22 @@
     </row>
     <row r="4" spans="1:1" ht="15">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15">
       <c r="A9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15">
-      <c r="A12" s="17" t="s">
         <v>63</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="H12" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="I12" s="17" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15">
-      <c r="A13" t="s">
-        <v>72</v>
-      </c>
-      <c r="B13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C13" t="s">
-        <v>74</v>
-      </c>
-      <c r="D13" t="s">
-        <v>75</v>
-      </c>
-      <c r="E13" t="s">
-        <v>76</v>
-      </c>
-      <c r="F13" t="s">
-        <v>76</v>
-      </c>
-      <c r="G13" t="s">
-        <v>77</v>
-      </c>
-      <c r="H13" t="s">
-        <v>78</v>
-      </c>
-      <c r="I13" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15">
-      <c r="A14" t="s">
-        <v>72</v>
-      </c>
-      <c r="B14" t="s">
-        <v>80</v>
-      </c>
-      <c r="C14" t="s">
-        <v>81</v>
-      </c>
-      <c r="D14" t="s">
-        <v>82</v>
-      </c>
-      <c r="E14" t="s">
-        <v>83</v>
-      </c>
-      <c r="F14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G14" t="s">
-        <v>84</v>
-      </c>
-      <c r="H14" t="s">
-        <v>85</v>
-      </c>
-      <c r="I14" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15">
-      <c r="A15" t="s">
-        <v>72</v>
-      </c>
-      <c r="B15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C15" t="s">
-        <v>74</v>
-      </c>
-      <c r="D15" t="s">
-        <v>75</v>
-      </c>
-      <c r="E15" t="s">
-        <v>88</v>
-      </c>
-      <c r="F15" t="s">
-        <v>88</v>
-      </c>
-      <c r="G15" t="s">
-        <v>77</v>
-      </c>
-      <c r="H15" t="s">
-        <v>85</v>
-      </c>
-      <c r="I15" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15">
-      <c r="A16" t="s">
-        <v>72</v>
-      </c>
-      <c r="B16" t="s">
-        <v>89</v>
-      </c>
-      <c r="C16" t="s">
-        <v>81</v>
-      </c>
-      <c r="D16" t="s">
-        <v>82</v>
-      </c>
-      <c r="E16" t="s">
-        <v>90</v>
-      </c>
-      <c r="F16" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" t="s">
-        <v>91</v>
-      </c>
-      <c r="H16" t="s">
-        <v>92</v>
-      </c>
-      <c r="I16" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15">
-      <c r="A17" t="s">
-        <v>72</v>
-      </c>
-      <c r="B17" t="s">
-        <v>94</v>
-      </c>
-      <c r="C17" t="s">
-        <v>74</v>
-      </c>
-      <c r="D17" t="s">
-        <v>75</v>
-      </c>
-      <c r="E17" t="s">
-        <v>95</v>
-      </c>
-      <c r="F17" t="s">
-        <v>95</v>
-      </c>
-      <c r="G17" t="s">
-        <v>96</v>
-      </c>
-      <c r="H17" t="s">
-        <v>92</v>
-      </c>
-      <c r="I17" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15">
-      <c r="A18" t="s">
-        <v>72</v>
-      </c>
-      <c r="B18" t="s">
-        <v>97</v>
-      </c>
-      <c r="C18" t="s">
-        <v>81</v>
-      </c>
-      <c r="D18" t="s">
-        <v>82</v>
-      </c>
-      <c r="E18" t="s">
-        <v>98</v>
-      </c>
-      <c r="F18" t="s">
-        <v>98</v>
-      </c>
-      <c r="G18" t="s">
-        <v>99</v>
-      </c>
-      <c r="H18" t="s">
-        <v>100</v>
-      </c>
-      <c r="I18" t="s">
-        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/RegressionTests/NeuralNetClassifier_Unit_Test_2/expected_aptrans_anon.Copy_of_Irish_Life_Transfer_letter.xlsx
+++ b/RegressionTests/NeuralNetClassifier_Unit_Test_2/expected_aptrans_anon.Copy_of_Irish_Life_Transfer_letter.xlsx
@@ -9,8 +9,7 @@
   <sheets>
     <sheet name="~Details" sheetId="3" r:id="rId2"/>
     <sheet name="sheet1" sheetId="4" r:id="rId3"/>
-    <sheet name="$Details" sheetId="5" r:id="rId4"/>
-    <sheet name="#Details" sheetId="6" r:id="rId5"/>
+    <sheet name="#Details" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525"/>
@@ -18,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="120">
   <si>
     <t>Scheme No: 605834</t>
   </si>
@@ -101,103 +100,166 @@
     <t>SURNAME</t>
   </si>
   <si>
+    <t>PAYROLL</t>
+  </si>
+  <si>
     <t>EE</t>
   </si>
   <si>
     <t>ER</t>
   </si>
   <si>
+    <t>Payroll number 745475 does not exist for Scheme ID 603520
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>Kilshanny</t>
   </si>
   <si>
     <t>Glenageary</t>
   </si>
   <si>
+    <t>745475</t>
+  </si>
+  <si>
+    <t>Payroll number 778461 does not exist for Scheme ID 603520
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>Caherconlish</t>
   </si>
   <si>
     <t>Blue</t>
   </si>
   <si>
+    <t>778461</t>
+  </si>
+  <si>
+    <t>Payroll number 745541 does not exist for Scheme ID 603520
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>Furbo</t>
   </si>
   <si>
     <t>Frenchpark</t>
   </si>
   <si>
+    <t>745541</t>
+  </si>
+  <si>
+    <t>Payroll number 745479 does not exist for Scheme ID 603520
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>Ballinrobe</t>
   </si>
   <si>
     <t>Midleton</t>
   </si>
   <si>
+    <t>745479</t>
+  </si>
+  <si>
+    <t>Payroll number 745519 does not exist for Scheme ID 603520
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>Coolrain</t>
   </si>
   <si>
     <t>Riverchapel</t>
   </si>
   <si>
+    <t>745519</t>
+  </si>
+  <si>
+    <t>Payroll number 745473 does not exist for Scheme ID 603520
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>Omeath</t>
   </si>
   <si>
     <t>Knightstown</t>
   </si>
   <si>
+    <t>745473</t>
+  </si>
+  <si>
+    <t>Payroll number 745472 does not exist for Scheme ID 603520
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>Ballyfin</t>
   </si>
   <si>
     <t>Ballindooley</t>
   </si>
   <si>
+    <t>745472</t>
+  </si>
+  <si>
+    <t>Payroll number 745471 does not exist for Scheme ID 603520
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>Harold</t>
   </si>
   <si>
     <t>Kilskeer</t>
   </si>
   <si>
+    <t>745471</t>
+  </si>
+  <si>
+    <t>Payroll number 745474 does not exist for Scheme ID 603520
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>Grange</t>
   </si>
   <si>
     <t>Geesala</t>
   </si>
   <si>
+    <t>745474</t>
+  </si>
+  <si>
+    <t>No Refno or PPS number or payroll number specified
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>Rathnure</t>
   </si>
   <si>
     <t>Blanchardstown</t>
   </si>
   <si>
+    <t>Payroll number 745477 does not exist for Scheme ID 603520
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>Bansha</t>
   </si>
   <si>
     <t xml:space="preserve">O'Castleblakeney </t>
   </si>
   <si>
+    <t>745477</t>
+  </si>
+  <si>
+    <t>Payroll number 745539 does not exist for Scheme ID 603520
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>Duhallow</t>
   </si>
   <si>
     <t>Buckode</t>
   </si>
   <si>
-    <t>2_Errors_found</t>
-  </si>
-  <si>
-    <t>Error Type</t>
-  </si>
-  <si>
-    <t>Error Description</t>
-  </si>
-  <si>
-    <t>Mandatory columns not found</t>
-  </si>
-  <si>
-    <t>No unique ID reference column (REFNO/PPSNO/Payroll) was found</t>
-  </si>
-  <si>
-    <t>schemeNotNull</t>
-  </si>
-  <si>
-    <t>The Scheme ID is missing</t>
+    <t>745539</t>
   </si>
   <si>
     <t>NEG_ROWS</t>
@@ -210,6 +272,123 @@
   </si>
   <si>
     <t>2904</t>
+  </si>
+  <si>
+    <t>Payment Frequency</t>
+  </si>
+  <si>
+    <t>Invoice Number</t>
+  </si>
+  <si>
+    <t>Paypoint</t>
+  </si>
+  <si>
+    <t>Collection Method</t>
+  </si>
+  <si>
+    <t>Date Received</t>
+  </si>
+  <si>
+    <t>Override Date</t>
+  </si>
+  <si>
+    <t>Amount Received</t>
+  </si>
+  <si>
+    <t>MIRO Date</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Monthly</t>
+  </si>
+  <si>
+    <t>1181858</t>
+  </si>
+  <si>
+    <t>352001</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>07/09/2021</t>
+  </si>
+  <si>
+    <t>15,788.67</t>
+  </si>
+  <si>
+    <t>01/08/2021</t>
+  </si>
+  <si>
+    <t>ILIM August 2021</t>
+  </si>
+  <si>
+    <t>1180620</t>
+  </si>
+  <si>
+    <t>352004</t>
+  </si>
+  <si>
+    <t>Direct Debit</t>
+  </si>
+  <si>
+    <t>30/08/2021</t>
+  </si>
+  <si>
+    <t>7,567.84</t>
+  </si>
+  <si>
+    <t>ILIM Aug 2021</t>
+  </si>
+  <si>
+    <t>1177725</t>
+  </si>
+  <si>
+    <t>12/08/2021</t>
+  </si>
+  <si>
+    <t>01/07/2021</t>
+  </si>
+  <si>
+    <t>ILIM July 21</t>
+  </si>
+  <si>
+    <t>1176008</t>
+  </si>
+  <si>
+    <t>30/07/2021</t>
+  </si>
+  <si>
+    <t>ILIM July 2021</t>
+  </si>
+  <si>
+    <t>1173446</t>
+  </si>
+  <si>
+    <t>29/06/2021</t>
+  </si>
+  <si>
+    <t>476.66</t>
+  </si>
+  <si>
+    <t>01/06/2021</t>
+  </si>
+  <si>
+    <t>ILIM June 2021 M McNulty (N/E)</t>
+  </si>
+  <si>
+    <t>1172079</t>
+  </si>
+  <si>
+    <t>05/07/2021</t>
+  </si>
+  <si>
+    <t>15,827.67</t>
+  </si>
+  <si>
+    <t>ILIM June 2021</t>
   </si>
 </sst>
 </file>
@@ -223,7 +402,7 @@
     <numFmt numFmtId="179" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="180" formatCode="mmm/yy"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -393,6 +572,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -405,8 +585,15 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -596,18 +783,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39998000860214233"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00CC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0000CC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -831,7 +1006,7 @@
     <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -858,17 +1033,16 @@
       <alignment/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1784,7 +1958,7 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -1792,10 +1966,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="16.25"/>
+    <col min="1" max="1" width="54.125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15">
+    <row r="1" spans="1:6" ht="15">
       <c r="A1" s="12" t="s">
         <v>24</v>
       </c>
@@ -1811,184 +1985,244 @@
       <c r="E1" s="13" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="14.25">
-      <c r="A2" s="14"/>
+      <c r="F1" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="30">
+      <c r="A2" s="14" t="s">
+        <v>30</v>
+      </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2">
         <v>375.0</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>37.5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.25">
-      <c r="A3" s="14"/>
+    <row r="3" spans="1:6" ht="30">
+      <c r="A3" s="14" t="s">
+        <v>34</v>
+      </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3">
+        <v>36</v>
+      </c>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3">
         <v>100.0</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>10.0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14.25">
-      <c r="A4" s="14"/>
+    <row r="4" spans="1:6" ht="30">
+      <c r="A4" s="14" t="s">
+        <v>38</v>
+      </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4">
         <v>350.0</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>35.0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14.25">
-      <c r="A5" s="14"/>
+    <row r="5" spans="1:6" ht="30">
+      <c r="A5" s="14" t="s">
+        <v>42</v>
+      </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5">
+        <v>44</v>
+      </c>
+      <c r="D5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5">
         <v>50.0</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>5.0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14.25">
-      <c r="A6" s="14"/>
+    <row r="6" spans="1:6" ht="30">
+      <c r="A6" s="14" t="s">
+        <v>46</v>
+      </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6">
+        <v>48</v>
+      </c>
+      <c r="D6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6">
         <v>140.0</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>14.0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14.25">
-      <c r="A7" s="14"/>
+    <row r="7" spans="1:6" ht="30">
+      <c r="A7" s="14" t="s">
+        <v>50</v>
+      </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7">
+        <v>52</v>
+      </c>
+      <c r="D7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7">
         <v>450.0</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>45.0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14.25">
-      <c r="A8" s="14"/>
+    <row r="8" spans="1:6" ht="30">
+      <c r="A8" s="14" t="s">
+        <v>54</v>
+      </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8">
+        <v>56</v>
+      </c>
+      <c r="D8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8">
         <v>100.0</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>10.0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14.25">
-      <c r="A9" s="14"/>
+    <row r="9" spans="1:6" ht="30">
+      <c r="A9" s="14" t="s">
+        <v>58</v>
+      </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9">
+        <v>60</v>
+      </c>
+      <c r="D9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9">
         <v>350.0</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>35.0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14.25">
-      <c r="A10" s="14"/>
+    <row r="10" spans="1:6" ht="30">
+      <c r="A10" s="14" t="s">
+        <v>62</v>
+      </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10">
+        <v>64</v>
+      </c>
+      <c r="D10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10">
         <v>50.0</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>5.0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14.25">
-      <c r="A11" s="14"/>
+    <row r="11" spans="1:6" ht="30">
+      <c r="A11" s="14" t="s">
+        <v>66</v>
+      </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11">
+        <v>68</v>
+      </c>
+      <c r="E11">
         <v>250.0</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>25.0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="14.25">
-      <c r="A12" s="14"/>
+    <row r="12" spans="1:6" ht="30">
+      <c r="A12" s="14" t="s">
+        <v>69</v>
+      </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12">
+        <v>71</v>
+      </c>
+      <c r="D12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12">
         <v>200.0</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>20.0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="14.25">
-      <c r="A13" s="14"/>
+    <row r="13" spans="1:6" ht="30">
+      <c r="A13" s="14" t="s">
+        <v>73</v>
+      </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13">
+        <v>75</v>
+      </c>
+      <c r="D13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13">
         <v>225.0</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>22.5</v>
       </c>
     </row>
@@ -2000,69 +2234,31 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15">
-      <c r="A1" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1" s="15"/>
-    </row>
-    <row r="2" spans="1:2" ht="15">
-      <c r="A2" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15">
-      <c r="A3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15">
-      <c r="A4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <dimension ref="A1:B9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.75"/>
+    <col min="2" max="2" width="14.125"/>
+    <col min="3" max="3" width="8.25"/>
+    <col min="4" max="4" width="15.75"/>
+    <col min="5" max="5" width="13.25"/>
+    <col min="6" max="6" width="12.625"/>
+    <col min="7" max="7" width="15.75"/>
+    <col min="8" max="8" width="10.5"/>
+    <col min="9" max="9" width="28.125"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15">
@@ -2075,22 +2271,225 @@
     </row>
     <row r="4" spans="1:1" ht="15">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15">
+      <c r="A12" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15">
+      <c r="A13" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13" t="s">
+        <v>94</v>
+      </c>
+      <c r="F13" t="s">
+        <v>94</v>
+      </c>
+      <c r="G13" t="s">
+        <v>95</v>
+      </c>
+      <c r="H13" t="s">
+        <v>96</v>
+      </c>
+      <c r="I13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15">
+      <c r="A14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" t="s">
+        <v>101</v>
+      </c>
+      <c r="F14" t="s">
+        <v>101</v>
+      </c>
+      <c r="G14" t="s">
+        <v>102</v>
+      </c>
+      <c r="H14" t="s">
+        <v>96</v>
+      </c>
+      <c r="I14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15">
+      <c r="A15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" t="s">
+        <v>93</v>
+      </c>
+      <c r="E15" t="s">
+        <v>105</v>
+      </c>
+      <c r="F15" t="s">
+        <v>105</v>
+      </c>
+      <c r="G15" t="s">
+        <v>95</v>
+      </c>
+      <c r="H15" t="s">
+        <v>106</v>
+      </c>
+      <c r="I15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15">
+      <c r="A16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" t="s">
+        <v>108</v>
+      </c>
+      <c r="C16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" t="s">
+        <v>100</v>
+      </c>
+      <c r="E16" t="s">
+        <v>109</v>
+      </c>
+      <c r="F16" t="s">
+        <v>109</v>
+      </c>
+      <c r="G16" t="s">
+        <v>102</v>
+      </c>
+      <c r="H16" t="s">
+        <v>106</v>
+      </c>
+      <c r="I16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15">
+      <c r="A17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" t="s">
+        <v>111</v>
+      </c>
+      <c r="C17" t="s">
+        <v>99</v>
+      </c>
+      <c r="D17" t="s">
+        <v>100</v>
+      </c>
+      <c r="E17" t="s">
+        <v>112</v>
+      </c>
+      <c r="F17" t="s">
+        <v>112</v>
+      </c>
+      <c r="G17" t="s">
+        <v>113</v>
+      </c>
+      <c r="H17" t="s">
+        <v>114</v>
+      </c>
+      <c r="I17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15">
+      <c r="A18" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" t="s">
+        <v>116</v>
+      </c>
+      <c r="C18" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" t="s">
+        <v>93</v>
+      </c>
+      <c r="E18" t="s">
+        <v>117</v>
+      </c>
+      <c r="F18" t="s">
+        <v>117</v>
+      </c>
+      <c r="G18" t="s">
+        <v>118</v>
+      </c>
+      <c r="H18" t="s">
+        <v>114</v>
+      </c>
+      <c r="I18" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/RegressionTests/NeuralNetClassifier_Unit_Test_2/expected_aptrans_anon.Copy_of_Irish_Life_Transfer_letter.xlsx
+++ b/RegressionTests/NeuralNetClassifier_Unit_Test_2/expected_aptrans_anon.Copy_of_Irish_Life_Transfer_letter.xlsx
@@ -9,7 +9,8 @@
   <sheets>
     <sheet name="~Details" sheetId="3" r:id="rId2"/>
     <sheet name="sheet1" sheetId="4" r:id="rId3"/>
-    <sheet name="#Details" sheetId="5" r:id="rId4"/>
+    <sheet name="$Details" sheetId="5" r:id="rId4"/>
+    <sheet name="#Details" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525"/>
@@ -17,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="102">
   <si>
     <t>Scheme No: 605834</t>
   </si>
@@ -100,166 +101,101 @@
     <t>SURNAME</t>
   </si>
   <si>
-    <t>PAYROLL</t>
-  </si>
-  <si>
     <t>EE</t>
   </si>
   <si>
     <t>ER</t>
-  </si>
-  <si>
-    <t>Payroll number 745475 does not exist for Scheme ID 603520
-Member does not have open Paypoints</t>
-  </si>
-  <si>
-    <t>Kilshanny</t>
-  </si>
-  <si>
-    <t>Glenageary</t>
-  </si>
-  <si>
-    <t>745475</t>
-  </si>
-  <si>
-    <t>Payroll number 778461 does not exist for Scheme ID 603520
-Member does not have open Paypoints</t>
-  </si>
-  <si>
-    <t>Caherconlish</t>
-  </si>
-  <si>
-    <t>Blue</t>
-  </si>
-  <si>
-    <t>778461</t>
-  </si>
-  <si>
-    <t>Payroll number 745541 does not exist for Scheme ID 603520
-Member does not have open Paypoints</t>
-  </si>
-  <si>
-    <t>Furbo</t>
-  </si>
-  <si>
-    <t>Frenchpark</t>
-  </si>
-  <si>
-    <t>745541</t>
-  </si>
-  <si>
-    <t>Payroll number 745479 does not exist for Scheme ID 603520
-Member does not have open Paypoints</t>
-  </si>
-  <si>
-    <t>Ballinrobe</t>
-  </si>
-  <si>
-    <t>Midleton</t>
-  </si>
-  <si>
-    <t>745479</t>
-  </si>
-  <si>
-    <t>Payroll number 745519 does not exist for Scheme ID 603520
-Member does not have open Paypoints</t>
-  </si>
-  <si>
-    <t>Coolrain</t>
-  </si>
-  <si>
-    <t>Riverchapel</t>
-  </si>
-  <si>
-    <t>745519</t>
-  </si>
-  <si>
-    <t>Payroll number 745473 does not exist for Scheme ID 603520
-Member does not have open Paypoints</t>
-  </si>
-  <si>
-    <t>Omeath</t>
-  </si>
-  <si>
-    <t>Knightstown</t>
-  </si>
-  <si>
-    <t>745473</t>
-  </si>
-  <si>
-    <t>Payroll number 745472 does not exist for Scheme ID 603520
-Member does not have open Paypoints</t>
-  </si>
-  <si>
-    <t>Ballyfin</t>
-  </si>
-  <si>
-    <t>Ballindooley</t>
-  </si>
-  <si>
-    <t>745472</t>
-  </si>
-  <si>
-    <t>Payroll number 745471 does not exist for Scheme ID 603520
-Member does not have open Paypoints</t>
-  </si>
-  <si>
-    <t>Harold</t>
-  </si>
-  <si>
-    <t>Kilskeer</t>
-  </si>
-  <si>
-    <t>745471</t>
-  </si>
-  <si>
-    <t>Payroll number 745474 does not exist for Scheme ID 603520
-Member does not have open Paypoints</t>
-  </si>
-  <si>
-    <t>Grange</t>
-  </si>
-  <si>
-    <t>Geesala</t>
-  </si>
-  <si>
-    <t>745474</t>
   </si>
   <si>
     <t>No Refno or PPS number or payroll number specified
 Member does not have open Paypoints</t>
   </si>
   <si>
+    <t>Kilshanny</t>
+  </si>
+  <si>
+    <t>Glenageary</t>
+  </si>
+  <si>
+    <t>Caherconlish</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>Furbo</t>
+  </si>
+  <si>
+    <t>Frenchpark</t>
+  </si>
+  <si>
+    <t>Ballinrobe</t>
+  </si>
+  <si>
+    <t>Midleton</t>
+  </si>
+  <si>
+    <t>Coolrain</t>
+  </si>
+  <si>
+    <t>Riverchapel</t>
+  </si>
+  <si>
+    <t>Omeath</t>
+  </si>
+  <si>
+    <t>Knightstown</t>
+  </si>
+  <si>
+    <t>Ballyfin</t>
+  </si>
+  <si>
+    <t>Ballindooley</t>
+  </si>
+  <si>
+    <t>Harold</t>
+  </si>
+  <si>
+    <t>Kilskeer</t>
+  </si>
+  <si>
+    <t>Grange</t>
+  </si>
+  <si>
+    <t>Geesala</t>
+  </si>
+  <si>
     <t>Rathnure</t>
   </si>
   <si>
     <t>Blanchardstown</t>
   </si>
   <si>
-    <t>Payroll number 745477 does not exist for Scheme ID 603520
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>Bansha</t>
   </si>
   <si>
     <t xml:space="preserve">O'Castleblakeney </t>
   </si>
   <si>
-    <t>745477</t>
-  </si>
-  <si>
-    <t>Payroll number 745539 does not exist for Scheme ID 603520
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>Duhallow</t>
   </si>
   <si>
     <t>Buckode</t>
   </si>
   <si>
-    <t>745539</t>
+    <t>1_Errors_found</t>
+  </si>
+  <si>
+    <t>Error Type</t>
+  </si>
+  <si>
+    <t>Error Description</t>
+  </si>
+  <si>
+    <t>Mandatory columns not found</t>
+  </si>
+  <si>
+    <t>No unique ID reference column (REFNO/PPSNO/Payroll) was found</t>
   </si>
   <si>
     <t>NEG_ROWS</t>
@@ -580,20 +516,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -783,6 +719,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39998000860214233"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00CC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000CC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -912,14 +860,6 @@
       </bottom>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -932,6 +872,14 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
     </border>
   </borders>
   <cellStyleXfs count="63">
@@ -1006,7 +954,7 @@
     <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1033,15 +981,20 @@
       <alignment/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1958,7 +1911,7 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -1966,10 +1919,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="54.125"/>
+    <col min="1" max="1" width="47.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15">
+    <row r="1" spans="1:5" ht="15">
       <c r="A1" s="12" t="s">
         <v>24</v>
       </c>
@@ -1985,244 +1938,208 @@
       <c r="E1" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="13" t="s">
+    </row>
+    <row r="2" spans="1:5" ht="30">
+      <c r="A2" s="14" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="30">
-      <c r="A2" s="14" t="s">
+      <c r="B2" t="s">
         <v>30</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>31</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2">
+        <v>375.0</v>
+      </c>
+      <c r="E2">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30">
+      <c r="A3" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
         <v>32</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C3" t="s">
         <v>33</v>
       </c>
-      <c r="E2">
-        <v>375.0</v>
-      </c>
-      <c r="F2">
-        <v>37.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="30">
-      <c r="A3" s="14" t="s">
+      <c r="D3">
+        <v>100.0</v>
+      </c>
+      <c r="E3">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30">
+      <c r="A4" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
         <v>34</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C4" t="s">
         <v>35</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D4">
+        <v>350.0</v>
+      </c>
+      <c r="E4">
+        <v>35.0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30">
+      <c r="A5" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
         <v>36</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C5" t="s">
         <v>37</v>
       </c>
-      <c r="E3">
+      <c r="D5">
+        <v>50.0</v>
+      </c>
+      <c r="E5">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30">
+      <c r="A6" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6">
+        <v>140.0</v>
+      </c>
+      <c r="E6">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30">
+      <c r="A7" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7">
+        <v>450.0</v>
+      </c>
+      <c r="E7">
+        <v>45.0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30">
+      <c r="A8" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8">
         <v>100.0</v>
       </c>
-      <c r="F3">
+      <c r="E8">
         <v>10.0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="30">
-      <c r="A4" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4">
+    <row r="9" spans="1:5" ht="30">
+      <c r="A9" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9">
         <v>350.0</v>
       </c>
-      <c r="F4">
+      <c r="E9">
         <v>35.0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="30">
-      <c r="A5" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5">
+    <row r="10" spans="1:5" ht="30">
+      <c r="A10" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10">
         <v>50.0</v>
       </c>
-      <c r="F5">
+      <c r="E10">
         <v>5.0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="30">
-      <c r="A6" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" t="s">
+    <row r="11" spans="1:5" ht="30">
+      <c r="A11" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
         <v>48</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C11" t="s">
         <v>49</v>
       </c>
-      <c r="E6">
-        <v>140.0</v>
-      </c>
-      <c r="F6">
-        <v>14.0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="30">
-      <c r="A7" s="14" t="s">
+      <c r="D11">
+        <v>250.0</v>
+      </c>
+      <c r="E11">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="30">
+      <c r="A12" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
         <v>50</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C12" t="s">
         <v>51</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D12">
+        <v>200.0</v>
+      </c>
+      <c r="E12">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="30">
+      <c r="A13" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
         <v>52</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C13" t="s">
         <v>53</v>
       </c>
-      <c r="E7">
-        <v>450.0</v>
-      </c>
-      <c r="F7">
-        <v>45.0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="30">
-      <c r="A8" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8">
-        <v>100.0</v>
-      </c>
-      <c r="F8">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="30">
-      <c r="A9" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9">
-        <v>350.0</v>
-      </c>
-      <c r="F9">
-        <v>35.0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="30">
-      <c r="A10" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="B10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10" t="s">
-        <v>65</v>
-      </c>
-      <c r="E10">
-        <v>50.0</v>
-      </c>
-      <c r="F10">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="30">
-      <c r="A11" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="B11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11">
-        <v>250.0</v>
-      </c>
-      <c r="F11">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="30">
-      <c r="A12" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="B12" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" t="s">
-        <v>71</v>
-      </c>
-      <c r="D12" t="s">
-        <v>72</v>
-      </c>
-      <c r="E12">
-        <v>200.0</v>
-      </c>
-      <c r="F12">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="30">
-      <c r="A13" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="B13" t="s">
-        <v>74</v>
-      </c>
-      <c r="C13" t="s">
-        <v>75</v>
-      </c>
-      <c r="D13" t="s">
-        <v>76</v>
+      <c r="D13">
+        <v>225.0</v>
       </c>
       <c r="E13">
-        <v>225.0</v>
-      </c>
-      <c r="F13">
         <v>22.5</v>
       </c>
     </row>
@@ -2233,6 +2150,47 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15">
+      <c r="A1" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="16"/>
+    </row>
+    <row r="2" spans="1:2" ht="15">
+      <c r="A2" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <dimension ref="A1:I18"/>
   <sheetViews>
@@ -2255,10 +2213,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15">
       <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
         <v>28</v>
-      </c>
-      <c r="B1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15">
@@ -2271,225 +2229,225 @@
     </row>
     <row r="4" spans="1:1" ht="15">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15">
       <c r="A5" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15">
       <c r="A8" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15">
       <c r="A9" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15">
-      <c r="A12" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="I12" s="15" t="s">
-        <v>89</v>
+      <c r="A12" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="I12" s="18" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15">
       <c r="A13" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="B13" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="C13" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="D13" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="E13" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="F13" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="G13" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="H13" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="I13" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15">
       <c r="A14" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="B14" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="C14" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="D14" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="E14" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="F14" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="G14" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="H14" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="I14" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15">
       <c r="A15" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="B15" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="C15" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="D15" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="E15" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="F15" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="G15" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="H15" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="I15" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15">
       <c r="A16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" t="s">
         <v>90</v>
       </c>
-      <c r="B16" t="s">
-        <v>108</v>
-      </c>
       <c r="C16" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="D16" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="E16" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="F16" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="G16" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="H16" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="I16" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15">
       <c r="A17" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="B17" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="C17" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="D17" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="E17" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="F17" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="G17" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="H17" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="I17" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15">
       <c r="A18" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="B18" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="C18" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="D18" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="E18" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="F18" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="G18" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="H18" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="I18" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/RegressionTests/NeuralNetClassifier_Unit_Test_2/expected_aptrans_anon.Copy_of_Irish_Life_Transfer_letter.xlsx
+++ b/RegressionTests/NeuralNetClassifier_Unit_Test_2/expected_aptrans_anon.Copy_of_Irish_Life_Transfer_letter.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="64">
   <si>
     <t>Scheme No: 605834</t>
   </si>
@@ -107,10 +107,6 @@
     <t>ER</t>
   </si>
   <si>
-    <t>No Refno or PPS number or payroll number specified
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>Kilshanny</t>
   </si>
   <si>
@@ -183,7 +179,7 @@
     <t>Buckode</t>
   </si>
   <si>
-    <t>1_Errors_found</t>
+    <t>2_Errors_found</t>
   </si>
   <si>
     <t>Error Type</t>
@@ -198,6 +194,12 @@
     <t>No unique ID reference column (REFNO/PPSNO/Payroll) was found</t>
   </si>
   <si>
+    <t>schemeNotNull</t>
+  </si>
+  <si>
+    <t>The Scheme ID is missing</t>
+  </si>
+  <si>
     <t>NEG_ROWS</t>
   </si>
   <si>
@@ -208,123 +210,6 @@
   </si>
   <si>
     <t>2904</t>
-  </si>
-  <si>
-    <t>Payment Frequency</t>
-  </si>
-  <si>
-    <t>Invoice Number</t>
-  </si>
-  <si>
-    <t>Paypoint</t>
-  </si>
-  <si>
-    <t>Collection Method</t>
-  </si>
-  <si>
-    <t>Date Received</t>
-  </si>
-  <si>
-    <t>Override Date</t>
-  </si>
-  <si>
-    <t>Amount Received</t>
-  </si>
-  <si>
-    <t>MIRO Date</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>Monthly</t>
-  </si>
-  <si>
-    <t>1181858</t>
-  </si>
-  <si>
-    <t>352001</t>
-  </si>
-  <si>
-    <t>Cash</t>
-  </si>
-  <si>
-    <t>07/09/2021</t>
-  </si>
-  <si>
-    <t>15,788.67</t>
-  </si>
-  <si>
-    <t>01/08/2021</t>
-  </si>
-  <si>
-    <t>ILIM August 2021</t>
-  </si>
-  <si>
-    <t>1180620</t>
-  </si>
-  <si>
-    <t>352004</t>
-  </si>
-  <si>
-    <t>Direct Debit</t>
-  </si>
-  <si>
-    <t>30/08/2021</t>
-  </si>
-  <si>
-    <t>7,567.84</t>
-  </si>
-  <si>
-    <t>ILIM Aug 2021</t>
-  </si>
-  <si>
-    <t>1177725</t>
-  </si>
-  <si>
-    <t>12/08/2021</t>
-  </si>
-  <si>
-    <t>01/07/2021</t>
-  </si>
-  <si>
-    <t>ILIM July 21</t>
-  </si>
-  <si>
-    <t>1176008</t>
-  </si>
-  <si>
-    <t>30/07/2021</t>
-  </si>
-  <si>
-    <t>ILIM July 2021</t>
-  </si>
-  <si>
-    <t>1173446</t>
-  </si>
-  <si>
-    <t>29/06/2021</t>
-  </si>
-  <si>
-    <t>476.66</t>
-  </si>
-  <si>
-    <t>01/06/2021</t>
-  </si>
-  <si>
-    <t>ILIM June 2021 M McNulty (N/E)</t>
-  </si>
-  <si>
-    <t>1172079</t>
-  </si>
-  <si>
-    <t>05/07/2021</t>
-  </si>
-  <si>
-    <t>15,827.67</t>
-  </si>
-  <si>
-    <t>ILIM June 2021</t>
   </si>
 </sst>
 </file>
@@ -508,25 +393,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="35">
@@ -954,7 +839,7 @@
     <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -981,21 +866,20 @@
       <alignment/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1919,10 +1803,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="47.5"/>
+    <col min="1" max="1" width="16.25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15">
+    <row r="1" spans="1:5" ht="30">
       <c r="A1" s="12" t="s">
         <v>24</v>
       </c>
@@ -1939,15 +1823,13 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:5" ht="14.25">
+      <c r="A2" s="14"/>
+      <c r="B2" t="s">
         <v>29</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>30</v>
-      </c>
-      <c r="C2" t="s">
-        <v>31</v>
       </c>
       <c r="D2">
         <v>375.0</v>
@@ -1956,15 +1838,13 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30">
-      <c r="A3" s="15" t="s">
-        <v>29</v>
-      </c>
+    <row r="3" spans="1:5" ht="14.25">
+      <c r="A3" s="15"/>
       <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
         <v>32</v>
-      </c>
-      <c r="C3" t="s">
-        <v>33</v>
       </c>
       <c r="D3">
         <v>100.0</v>
@@ -1973,15 +1853,13 @@
         <v>10.0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="30">
-      <c r="A4" s="15" t="s">
-        <v>29</v>
-      </c>
+    <row r="4" spans="1:5" ht="14.25">
+      <c r="A4" s="15"/>
       <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
         <v>34</v>
-      </c>
-      <c r="C4" t="s">
-        <v>35</v>
       </c>
       <c r="D4">
         <v>350.0</v>
@@ -1990,15 +1868,13 @@
         <v>35.0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30">
-      <c r="A5" s="15" t="s">
-        <v>29</v>
-      </c>
+    <row r="5" spans="1:5" ht="14.25">
+      <c r="A5" s="15"/>
       <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
         <v>36</v>
-      </c>
-      <c r="C5" t="s">
-        <v>37</v>
       </c>
       <c r="D5">
         <v>50.0</v>
@@ -2007,15 +1883,13 @@
         <v>5.0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30">
-      <c r="A6" s="15" t="s">
-        <v>29</v>
-      </c>
+    <row r="6" spans="1:5" ht="14.25">
+      <c r="A6" s="15"/>
       <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
         <v>38</v>
-      </c>
-      <c r="C6" t="s">
-        <v>39</v>
       </c>
       <c r="D6">
         <v>140.0</v>
@@ -2024,15 +1898,13 @@
         <v>14.0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30">
-      <c r="A7" s="15" t="s">
-        <v>29</v>
-      </c>
+    <row r="7" spans="1:5" ht="14.25">
+      <c r="A7" s="15"/>
       <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" t="s">
         <v>40</v>
-      </c>
-      <c r="C7" t="s">
-        <v>41</v>
       </c>
       <c r="D7">
         <v>450.0</v>
@@ -2041,15 +1913,13 @@
         <v>45.0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30">
-      <c r="A8" s="15" t="s">
-        <v>29</v>
-      </c>
+    <row r="8" spans="1:5" ht="14.25">
+      <c r="A8" s="15"/>
       <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" t="s">
         <v>42</v>
-      </c>
-      <c r="C8" t="s">
-        <v>43</v>
       </c>
       <c r="D8">
         <v>100.0</v>
@@ -2058,15 +1928,13 @@
         <v>10.0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30">
-      <c r="A9" s="15" t="s">
-        <v>29</v>
-      </c>
+    <row r="9" spans="1:5" ht="14.25">
+      <c r="A9" s="15"/>
       <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" t="s">
         <v>44</v>
-      </c>
-      <c r="C9" t="s">
-        <v>45</v>
       </c>
       <c r="D9">
         <v>350.0</v>
@@ -2075,15 +1943,13 @@
         <v>35.0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="30">
-      <c r="A10" s="15" t="s">
-        <v>29</v>
-      </c>
+    <row r="10" spans="1:5" ht="14.25">
+      <c r="A10" s="15"/>
       <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" t="s">
         <v>46</v>
-      </c>
-      <c r="C10" t="s">
-        <v>47</v>
       </c>
       <c r="D10">
         <v>50.0</v>
@@ -2092,15 +1958,13 @@
         <v>5.0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="30">
-      <c r="A11" s="15" t="s">
-        <v>29</v>
-      </c>
+    <row r="11" spans="1:5" ht="14.25">
+      <c r="A11" s="15"/>
       <c r="B11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" t="s">
         <v>48</v>
-      </c>
-      <c r="C11" t="s">
-        <v>49</v>
       </c>
       <c r="D11">
         <v>250.0</v>
@@ -2109,15 +1973,13 @@
         <v>25.0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="30">
-      <c r="A12" s="15" t="s">
-        <v>29</v>
-      </c>
+    <row r="12" spans="1:5" ht="14.25">
+      <c r="A12" s="15"/>
       <c r="B12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" t="s">
         <v>50</v>
-      </c>
-      <c r="C12" t="s">
-        <v>51</v>
       </c>
       <c r="D12">
         <v>200.0</v>
@@ -2126,15 +1988,13 @@
         <v>20.0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="30">
-      <c r="A13" s="15" t="s">
-        <v>29</v>
-      </c>
+    <row r="13" spans="1:5" ht="14.25">
+      <c r="A13" s="15"/>
       <c r="B13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" t="s">
         <v>52</v>
-      </c>
-      <c r="C13" t="s">
-        <v>53</v>
       </c>
       <c r="D13">
         <v>225.0</v>
@@ -2154,7 +2014,7 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -2164,24 +2024,32 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15">
       <c r="A1" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B1" s="16"/>
     </row>
     <row r="2" spans="1:2" ht="15">
       <c r="A2" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>55</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15">
       <c r="A3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" t="s">
         <v>57</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="4" spans="1:2" ht="15">
+      <c r="A4" t="s">
         <v>58</v>
+      </c>
+      <c r="B4" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2192,24 +2060,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.75"/>
-    <col min="2" max="2" width="14.125"/>
-    <col min="3" max="3" width="8.25"/>
-    <col min="4" max="4" width="15.75"/>
-    <col min="5" max="5" width="13.25"/>
-    <col min="6" max="6" width="12.625"/>
-    <col min="7" max="7" width="15.75"/>
-    <col min="8" max="8" width="10.5"/>
-    <col min="9" max="9" width="28.125"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15">
       <c r="A1" t="s">
@@ -2229,225 +2086,22 @@
     </row>
     <row r="4" spans="1:1" ht="15">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15">
       <c r="A9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15">
-      <c r="A12" s="18" t="s">
         <v>63</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="H12" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="I12" s="18" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15">
-      <c r="A13" t="s">
-        <v>72</v>
-      </c>
-      <c r="B13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C13" t="s">
-        <v>74</v>
-      </c>
-      <c r="D13" t="s">
-        <v>75</v>
-      </c>
-      <c r="E13" t="s">
-        <v>76</v>
-      </c>
-      <c r="F13" t="s">
-        <v>76</v>
-      </c>
-      <c r="G13" t="s">
-        <v>77</v>
-      </c>
-      <c r="H13" t="s">
-        <v>78</v>
-      </c>
-      <c r="I13" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15">
-      <c r="A14" t="s">
-        <v>72</v>
-      </c>
-      <c r="B14" t="s">
-        <v>80</v>
-      </c>
-      <c r="C14" t="s">
-        <v>81</v>
-      </c>
-      <c r="D14" t="s">
-        <v>82</v>
-      </c>
-      <c r="E14" t="s">
-        <v>83</v>
-      </c>
-      <c r="F14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G14" t="s">
-        <v>84</v>
-      </c>
-      <c r="H14" t="s">
-        <v>78</v>
-      </c>
-      <c r="I14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15">
-      <c r="A15" t="s">
-        <v>72</v>
-      </c>
-      <c r="B15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C15" t="s">
-        <v>74</v>
-      </c>
-      <c r="D15" t="s">
-        <v>75</v>
-      </c>
-      <c r="E15" t="s">
-        <v>87</v>
-      </c>
-      <c r="F15" t="s">
-        <v>87</v>
-      </c>
-      <c r="G15" t="s">
-        <v>77</v>
-      </c>
-      <c r="H15" t="s">
-        <v>88</v>
-      </c>
-      <c r="I15" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15">
-      <c r="A16" t="s">
-        <v>72</v>
-      </c>
-      <c r="B16" t="s">
-        <v>90</v>
-      </c>
-      <c r="C16" t="s">
-        <v>81</v>
-      </c>
-      <c r="D16" t="s">
-        <v>82</v>
-      </c>
-      <c r="E16" t="s">
-        <v>91</v>
-      </c>
-      <c r="F16" t="s">
-        <v>91</v>
-      </c>
-      <c r="G16" t="s">
-        <v>84</v>
-      </c>
-      <c r="H16" t="s">
-        <v>88</v>
-      </c>
-      <c r="I16" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15">
-      <c r="A17" t="s">
-        <v>72</v>
-      </c>
-      <c r="B17" t="s">
-        <v>93</v>
-      </c>
-      <c r="C17" t="s">
-        <v>81</v>
-      </c>
-      <c r="D17" t="s">
-        <v>82</v>
-      </c>
-      <c r="E17" t="s">
-        <v>94</v>
-      </c>
-      <c r="F17" t="s">
-        <v>94</v>
-      </c>
-      <c r="G17" t="s">
-        <v>95</v>
-      </c>
-      <c r="H17" t="s">
-        <v>96</v>
-      </c>
-      <c r="I17" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15">
-      <c r="A18" t="s">
-        <v>72</v>
-      </c>
-      <c r="B18" t="s">
-        <v>98</v>
-      </c>
-      <c r="C18" t="s">
-        <v>74</v>
-      </c>
-      <c r="D18" t="s">
-        <v>75</v>
-      </c>
-      <c r="E18" t="s">
-        <v>99</v>
-      </c>
-      <c r="F18" t="s">
-        <v>99</v>
-      </c>
-      <c r="G18" t="s">
-        <v>100</v>
-      </c>
-      <c r="H18" t="s">
-        <v>96</v>
-      </c>
-      <c r="I18" t="s">
-        <v>101</v>
       </c>
     </row>
   </sheetData>
